--- a/common/BranchTrigger.xlsx
+++ b/common/BranchTrigger.xlsx
@@ -14,9 +14,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">卷
 </t>
     </r>
@@ -43,6 +50,9 @@
   </si>
   <si>
     <t>信件文本</t>
+  </si>
+  <si>
+    <t>获得卡牌id</t>
   </si>
   <si>
     <r>
@@ -160,10 +170,33 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">card_id </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int</t>
+    </r>
+  </si>
+  <si>
     <t>萍水相逢</t>
   </si>
   <si>
-    <t>小姐姐这是你掉的炉石吗？请到信中地址领取</t>
+    <t xml:space="preserve">    近日天气爽朗，娘子不宜整日闷在屋中看书。婢子日日照料园内花木，娘子喜爱的墨菊、雪青都盛放了，园内栖霞湖秋水依依，婢子在栖霞湖的凉亭内特备下枣花蜜酿和各色糕点，想邀娘子移凤步至园内赏花，以舒朗心怀。还望娘子成全婢子一番心意，不吝赏光。</t>
   </si>
 </sst>
 </file>
@@ -171,12 +204,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +225,64 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -200,9 +291,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,61 +322,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -290,39 +351,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,6 +364,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -371,49 +410,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,132 +584,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -575,27 +614,38 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,7 +669,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,33 +715,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,10 +731,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -691,144 +743,159 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1150,71 +1217,1262 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="F3" sqref="F3:F62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="12.25" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="14.625" customWidth="1"/>
-    <col min="4" max="4" width="9.625" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="11.125" customWidth="1"/>
+    <col min="1" max="1" width="12.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="93.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="81.75" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="81.75" spans="1:6">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" ht="32.25" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="2" ht="32.25" spans="1:6">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" ht="40.5" spans="1:6">
+      <c r="A3" s="1">
         <v>10001</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="7">
+        <v>301001</v>
+      </c>
+    </row>
+    <row r="4" ht="40.5" spans="1:6">
+      <c r="A4" s="1">
+        <v>10002</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>60</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="7">
+        <v>301001</v>
+      </c>
+    </row>
+    <row r="5" ht="40.5" spans="1:6">
+      <c r="A5" s="1">
+        <v>10003</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>140</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="7">
+        <v>301001</v>
+      </c>
+    </row>
+    <row r="6" ht="40.5" spans="1:6">
+      <c r="A6" s="1">
+        <v>10004</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>260</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="7">
+        <v>301001</v>
+      </c>
+    </row>
+    <row r="7" ht="40.5" spans="1:6">
+      <c r="A7" s="1">
+        <v>10005</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>710</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7">
+        <v>301001</v>
+      </c>
+    </row>
+    <row r="8" ht="40.5" spans="1:6">
+      <c r="A8" s="1">
+        <v>10006</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1335</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="7">
+        <v>301001</v>
+      </c>
+    </row>
+    <row r="9" ht="40.5" spans="1:6">
+      <c r="A9" s="1">
+        <v>10007</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2460</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="7">
+        <v>301001</v>
+      </c>
+    </row>
+    <row r="10" ht="40.5" spans="1:6">
+      <c r="A10" s="1">
+        <v>10008</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4410</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="7">
+        <v>301001</v>
+      </c>
+    </row>
+    <row r="11" ht="40.5" spans="1:6">
+      <c r="A11" s="1">
+        <v>10009</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>7160</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="7">
+        <v>301001</v>
+      </c>
+    </row>
+    <row r="12" ht="40.5" spans="1:6">
+      <c r="A12" s="1">
+        <v>10010</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>16260</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="7">
+        <v>301001</v>
+      </c>
+    </row>
+    <row r="13" ht="40.5" spans="1:6">
+      <c r="A13" s="1">
+        <v>10011</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>29560</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="7">
+        <v>301001</v>
+      </c>
+    </row>
+    <row r="14" ht="40.5" spans="1:6">
+      <c r="A14" s="1">
+        <v>10012</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>47060</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="7">
+        <v>301001</v>
+      </c>
+    </row>
+    <row r="15" ht="40.5" spans="1:6">
+      <c r="A15" s="1">
+        <v>20001</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7">
+        <v>301001</v>
+      </c>
+    </row>
+    <row r="16" ht="40.5" spans="1:6">
+      <c r="A16" s="1">
+        <v>20002</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>60</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="7">
+        <v>301001</v>
+      </c>
+    </row>
+    <row r="17" ht="40.5" spans="1:6">
+      <c r="A17" s="1">
+        <v>20003</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>140</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="7">
+        <v>301001</v>
+      </c>
+    </row>
+    <row r="18" ht="40.5" spans="1:6">
+      <c r="A18" s="1">
+        <v>20004</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>260</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="7">
+        <v>301001</v>
+      </c>
+    </row>
+    <row r="19" ht="40.5" spans="1:6">
+      <c r="A19" s="1">
+        <v>20005</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>710</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="7">
+        <v>301001</v>
+      </c>
+    </row>
+    <row r="20" ht="40.5" spans="1:6">
+      <c r="A20" s="1">
+        <v>20006</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1335</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="7">
+        <v>301001</v>
+      </c>
+    </row>
+    <row r="21" ht="40.5" spans="1:6">
+      <c r="A21" s="1">
+        <v>20007</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2460</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="7">
+        <v>301001</v>
+      </c>
+    </row>
+    <row r="22" ht="40.5" spans="1:6">
+      <c r="A22" s="1">
+        <v>20008</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1">
+        <v>4410</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="7">
+        <v>301001</v>
+      </c>
+    </row>
+    <row r="23" ht="40.5" spans="1:6">
+      <c r="A23" s="1">
+        <v>20009</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1">
+        <v>7160</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="7">
+        <v>301001</v>
+      </c>
+    </row>
+    <row r="24" ht="40.5" spans="1:6">
+      <c r="A24" s="1">
+        <v>20010</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1">
+        <v>16260</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="7">
+        <v>301001</v>
+      </c>
+    </row>
+    <row r="25" ht="40.5" spans="1:6">
+      <c r="A25" s="1">
+        <v>20011</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2</v>
+      </c>
+      <c r="C25" s="1">
+        <v>29560</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="7">
+        <v>301001</v>
+      </c>
+    </row>
+    <row r="26" ht="40.5" spans="1:6">
+      <c r="A26" s="1">
+        <v>20012</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1">
+        <v>47060</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="7">
+        <v>301001</v>
+      </c>
+    </row>
+    <row r="27" ht="40.5" spans="1:6">
+      <c r="A27" s="1">
+        <v>30001</v>
+      </c>
+      <c r="B27" s="1">
+        <v>3</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="7">
+        <v>301001</v>
+      </c>
+    </row>
+    <row r="28" ht="40.5" spans="1:6">
+      <c r="A28" s="1">
+        <v>30002</v>
+      </c>
+      <c r="B28" s="1">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1">
+        <v>60</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="7">
+        <v>301001</v>
+      </c>
+    </row>
+    <row r="29" ht="40.5" spans="1:6">
+      <c r="A29" s="1">
+        <v>30003</v>
+      </c>
+      <c r="B29" s="1">
+        <v>3</v>
+      </c>
+      <c r="C29" s="1">
+        <v>140</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="7">
+        <v>301001</v>
+      </c>
+    </row>
+    <row r="30" ht="40.5" spans="1:6">
+      <c r="A30" s="1">
+        <v>30004</v>
+      </c>
+      <c r="B30" s="1">
+        <v>3</v>
+      </c>
+      <c r="C30" s="1">
+        <v>260</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="7">
+        <v>301001</v>
+      </c>
+    </row>
+    <row r="31" ht="40.5" spans="1:6">
+      <c r="A31" s="1">
+        <v>30005</v>
+      </c>
+      <c r="B31" s="1">
+        <v>3</v>
+      </c>
+      <c r="C31" s="1">
+        <v>710</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="7">
+        <v>301001</v>
+      </c>
+    </row>
+    <row r="32" ht="40.5" spans="1:6">
+      <c r="A32" s="1">
+        <v>30006</v>
+      </c>
+      <c r="B32" s="1">
+        <v>3</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1335</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="7">
+        <v>301001</v>
+      </c>
+    </row>
+    <row r="33" ht="40.5" spans="1:6">
+      <c r="A33" s="1">
+        <v>30007</v>
+      </c>
+      <c r="B33" s="1">
+        <v>3</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2460</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="7">
+        <v>301001</v>
+      </c>
+    </row>
+    <row r="34" ht="40.5" spans="1:6">
+      <c r="A34" s="1">
+        <v>30008</v>
+      </c>
+      <c r="B34" s="1">
+        <v>3</v>
+      </c>
+      <c r="C34" s="1">
+        <v>4410</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="7">
+        <v>301001</v>
+      </c>
+    </row>
+    <row r="35" ht="40.5" spans="1:6">
+      <c r="A35" s="1">
+        <v>30009</v>
+      </c>
+      <c r="B35" s="1">
+        <v>3</v>
+      </c>
+      <c r="C35" s="1">
+        <v>7160</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="7">
+        <v>301001</v>
+      </c>
+    </row>
+    <row r="36" ht="40.5" spans="1:6">
+      <c r="A36" s="1">
+        <v>30010</v>
+      </c>
+      <c r="B36" s="1">
+        <v>3</v>
+      </c>
+      <c r="C36" s="1">
+        <v>16260</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="7">
+        <v>301001</v>
+      </c>
+    </row>
+    <row r="37" ht="40.5" spans="1:6">
+      <c r="A37" s="1">
+        <v>30011</v>
+      </c>
+      <c r="B37" s="1">
+        <v>3</v>
+      </c>
+      <c r="C37" s="1">
+        <v>29560</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="7">
+        <v>301001</v>
+      </c>
+    </row>
+    <row r="38" ht="40.5" spans="1:6">
+      <c r="A38" s="1">
+        <v>30012</v>
+      </c>
+      <c r="B38" s="1">
+        <v>3</v>
+      </c>
+      <c r="C38" s="1">
+        <v>47060</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="7">
+        <v>301001</v>
+      </c>
+    </row>
+    <row r="39" ht="40.5" spans="1:6">
+      <c r="A39" s="1">
+        <v>40001</v>
+      </c>
+      <c r="B39" s="1">
+        <v>4</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="7">
+        <v>301001</v>
+      </c>
+    </row>
+    <row r="40" ht="40.5" spans="1:6">
+      <c r="A40" s="1">
+        <v>40002</v>
+      </c>
+      <c r="B40" s="1">
+        <v>4</v>
+      </c>
+      <c r="C40" s="1">
+        <v>60</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="7">
+        <v>301001</v>
+      </c>
+    </row>
+    <row r="41" ht="40.5" spans="1:6">
+      <c r="A41" s="1">
+        <v>40003</v>
+      </c>
+      <c r="B41" s="1">
+        <v>4</v>
+      </c>
+      <c r="C41" s="1">
+        <v>140</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="7">
+        <v>301001</v>
+      </c>
+    </row>
+    <row r="42" ht="40.5" spans="1:6">
+      <c r="A42" s="1">
+        <v>40004</v>
+      </c>
+      <c r="B42" s="1">
+        <v>4</v>
+      </c>
+      <c r="C42" s="1">
+        <v>260</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="7">
+        <v>301001</v>
+      </c>
+    </row>
+    <row r="43" ht="40.5" spans="1:6">
+      <c r="A43" s="1">
+        <v>40005</v>
+      </c>
+      <c r="B43" s="1">
+        <v>4</v>
+      </c>
+      <c r="C43" s="1">
+        <v>710</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="7">
+        <v>301001</v>
+      </c>
+    </row>
+    <row r="44" ht="40.5" spans="1:6">
+      <c r="A44" s="1">
+        <v>40006</v>
+      </c>
+      <c r="B44" s="1">
+        <v>4</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1335</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="7">
+        <v>301001</v>
+      </c>
+    </row>
+    <row r="45" ht="40.5" spans="1:6">
+      <c r="A45" s="1">
+        <v>40007</v>
+      </c>
+      <c r="B45" s="1">
+        <v>4</v>
+      </c>
+      <c r="C45" s="1">
+        <v>2460</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="7">
+        <v>301001</v>
+      </c>
+    </row>
+    <row r="46" ht="40.5" spans="1:6">
+      <c r="A46" s="1">
+        <v>40008</v>
+      </c>
+      <c r="B46" s="1">
+        <v>4</v>
+      </c>
+      <c r="C46" s="1">
+        <v>4410</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="7">
+        <v>301001</v>
+      </c>
+    </row>
+    <row r="47" ht="40.5" spans="1:6">
+      <c r="A47" s="1">
+        <v>40009</v>
+      </c>
+      <c r="B47" s="1">
+        <v>4</v>
+      </c>
+      <c r="C47" s="1">
+        <v>7160</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="7">
+        <v>301001</v>
+      </c>
+    </row>
+    <row r="48" ht="40.5" spans="1:6">
+      <c r="A48" s="1">
+        <v>40010</v>
+      </c>
+      <c r="B48" s="1">
+        <v>4</v>
+      </c>
+      <c r="C48" s="1">
+        <v>16260</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="7">
+        <v>301001</v>
+      </c>
+    </row>
+    <row r="49" ht="40.5" spans="1:6">
+      <c r="A49" s="1">
+        <v>40011</v>
+      </c>
+      <c r="B49" s="1">
+        <v>4</v>
+      </c>
+      <c r="C49" s="1">
+        <v>29560</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="7">
+        <v>301001</v>
+      </c>
+    </row>
+    <row r="50" ht="40.5" spans="1:6">
+      <c r="A50" s="1">
+        <v>40012</v>
+      </c>
+      <c r="B50" s="1">
+        <v>4</v>
+      </c>
+      <c r="C50" s="1">
+        <v>47060</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="7">
+        <v>301001</v>
+      </c>
+    </row>
+    <row r="51" ht="40.5" spans="1:6">
+      <c r="A51" s="1">
+        <v>50001</v>
+      </c>
+      <c r="B51" s="1">
+        <v>5</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="7">
+        <v>301001</v>
+      </c>
+    </row>
+    <row r="52" ht="40.5" spans="1:6">
+      <c r="A52" s="1">
+        <v>50002</v>
+      </c>
+      <c r="B52" s="1">
+        <v>5</v>
+      </c>
+      <c r="C52" s="1">
+        <v>60</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="7">
+        <v>301001</v>
+      </c>
+    </row>
+    <row r="53" ht="40.5" spans="1:6">
+      <c r="A53" s="1">
+        <v>50003</v>
+      </c>
+      <c r="B53" s="1">
+        <v>5</v>
+      </c>
+      <c r="C53" s="1">
+        <v>140</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="7">
+        <v>301001</v>
+      </c>
+    </row>
+    <row r="54" ht="40.5" spans="1:6">
+      <c r="A54" s="1">
+        <v>50004</v>
+      </c>
+      <c r="B54" s="1">
+        <v>5</v>
+      </c>
+      <c r="C54" s="1">
+        <v>260</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="7">
+        <v>301001</v>
+      </c>
+    </row>
+    <row r="55" ht="40.5" spans="1:6">
+      <c r="A55" s="1">
+        <v>50005</v>
+      </c>
+      <c r="B55" s="1">
+        <v>5</v>
+      </c>
+      <c r="C55" s="1">
+        <v>710</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="7">
+        <v>301001</v>
+      </c>
+    </row>
+    <row r="56" ht="40.5" spans="1:6">
+      <c r="A56" s="1">
+        <v>50006</v>
+      </c>
+      <c r="B56" s="1">
+        <v>5</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1335</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="7">
+        <v>301001</v>
+      </c>
+    </row>
+    <row r="57" ht="40.5" spans="1:6">
+      <c r="A57" s="1">
+        <v>50007</v>
+      </c>
+      <c r="B57" s="1">
+        <v>5</v>
+      </c>
+      <c r="C57" s="1">
+        <v>2460</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="7">
+        <v>301001</v>
+      </c>
+    </row>
+    <row r="58" ht="40.5" spans="1:6">
+      <c r="A58" s="1">
+        <v>50008</v>
+      </c>
+      <c r="B58" s="1">
+        <v>5</v>
+      </c>
+      <c r="C58" s="1">
+        <v>4410</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="7">
+        <v>301001</v>
+      </c>
+    </row>
+    <row r="59" ht="40.5" spans="1:6">
+      <c r="A59" s="1">
+        <v>50009</v>
+      </c>
+      <c r="B59" s="1">
+        <v>5</v>
+      </c>
+      <c r="C59" s="1">
+        <v>7160</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="7">
+        <v>301001</v>
+      </c>
+    </row>
+    <row r="60" ht="40.5" spans="1:6">
+      <c r="A60" s="1">
+        <v>50010</v>
+      </c>
+      <c r="B60" s="1">
+        <v>5</v>
+      </c>
+      <c r="C60" s="1">
+        <v>16260</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="7">
+        <v>301001</v>
+      </c>
+    </row>
+    <row r="61" ht="40.5" spans="1:6">
+      <c r="A61" s="1">
+        <v>50011</v>
+      </c>
+      <c r="B61" s="1">
+        <v>5</v>
+      </c>
+      <c r="C61" s="1">
+        <v>29560</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" s="7">
+        <v>301001</v>
+      </c>
+    </row>
+    <row r="62" ht="40.5" spans="1:6">
+      <c r="A62" s="1">
+        <v>50012</v>
+      </c>
+      <c r="B62" s="1">
+        <v>5</v>
+      </c>
+      <c r="C62" s="1">
+        <v>47060</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" s="7">
+        <v>301001</v>
       </c>
     </row>
   </sheetData>

--- a/common/BranchTrigger.xlsx
+++ b/common/BranchTrigger.xlsx
@@ -16,28 +16,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">卷
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>同id为一章
+    <t>卷
+同id为一章
 左侧为知交id
 右4位为章节序号</t>
-    </r>
   </si>
   <si>
     <t>知交id</t>
@@ -55,142 +37,22 @@
     <t>获得卡牌id</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">chapter </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>int</t>
-    </r>
+    <t>chapter int</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Friend_id </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>string</t>
-    </r>
+    <t>Friend_id string</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> favor </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>int</t>
-    </r>
+    <t xml:space="preserve"> favor int</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">title </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>string</t>
-    </r>
+    <t>title string</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">text </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>string</t>
-    </r>
+    <t>text string</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">card_id </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>int</t>
-    </r>
+    <t>card_id int</t>
   </si>
   <si>
     <t>萍水相逢</t>
@@ -204,12 +66,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,6 +93,45 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -240,6 +141,67 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,38 +223,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,90 +236,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <u/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -410,13 +258,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,163 +432,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,26 +474,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,16 +523,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -698,16 +546,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -731,10 +579,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -743,133 +591,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1217,10 +1065,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F62"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1255,7 +1103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="32.25" spans="1:6">
+    <row r="2" ht="30.75" spans="1:6">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -1283,7 +1131,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
@@ -1303,7 +1151,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>12</v>
@@ -1323,7 +1171,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>140</v>
+        <v>260</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>12</v>
@@ -1343,7 +1191,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>260</v>
+        <v>710</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>12</v>
@@ -1363,7 +1211,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="1">
-        <v>710</v>
+        <v>1335</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>12</v>
@@ -1383,7 +1231,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>1335</v>
+        <v>2460</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>12</v>
@@ -1403,7 +1251,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="1">
-        <v>2460</v>
+        <v>4410</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>12</v>
@@ -1423,7 +1271,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="1">
-        <v>4410</v>
+        <v>7160</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>12</v>
@@ -1443,7 +1291,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="1">
-        <v>7160</v>
+        <v>16260</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>12</v>
@@ -1463,7 +1311,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="1">
-        <v>16260</v>
+        <v>29560</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>12</v>
@@ -1483,7 +1331,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="1">
-        <v>29560</v>
+        <v>47060</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>12</v>
@@ -1497,13 +1345,13 @@
     </row>
     <row r="14" ht="40.5" spans="1:6">
       <c r="A14" s="1">
-        <v>10012</v>
+        <v>20001</v>
       </c>
       <c r="B14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" s="1">
-        <v>47060</v>
+        <v>60</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>12</v>
@@ -1517,13 +1365,13 @@
     </row>
     <row r="15" ht="40.5" spans="1:6">
       <c r="A15" s="1">
-        <v>20001</v>
+        <v>20002</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
       </c>
       <c r="C15" s="1">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>12</v>
@@ -1537,13 +1385,13 @@
     </row>
     <row r="16" ht="40.5" spans="1:6">
       <c r="A16" s="1">
-        <v>20002</v>
+        <v>20003</v>
       </c>
       <c r="B16" s="1">
         <v>2</v>
       </c>
       <c r="C16" s="1">
-        <v>60</v>
+        <v>260</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>12</v>
@@ -1557,13 +1405,13 @@
     </row>
     <row r="17" ht="40.5" spans="1:6">
       <c r="A17" s="1">
-        <v>20003</v>
+        <v>20004</v>
       </c>
       <c r="B17" s="1">
         <v>2</v>
       </c>
       <c r="C17" s="1">
-        <v>140</v>
+        <v>710</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>12</v>
@@ -1577,13 +1425,13 @@
     </row>
     <row r="18" ht="40.5" spans="1:6">
       <c r="A18" s="1">
-        <v>20004</v>
+        <v>20005</v>
       </c>
       <c r="B18" s="1">
         <v>2</v>
       </c>
       <c r="C18" s="1">
-        <v>260</v>
+        <v>1335</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>12</v>
@@ -1597,13 +1445,13 @@
     </row>
     <row r="19" ht="40.5" spans="1:6">
       <c r="A19" s="1">
-        <v>20005</v>
+        <v>20006</v>
       </c>
       <c r="B19" s="1">
         <v>2</v>
       </c>
       <c r="C19" s="1">
-        <v>710</v>
+        <v>2460</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>12</v>
@@ -1617,13 +1465,13 @@
     </row>
     <row r="20" ht="40.5" spans="1:6">
       <c r="A20" s="1">
-        <v>20006</v>
+        <v>20007</v>
       </c>
       <c r="B20" s="1">
         <v>2</v>
       </c>
       <c r="C20" s="1">
-        <v>1335</v>
+        <v>4410</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>12</v>
@@ -1637,13 +1485,13 @@
     </row>
     <row r="21" ht="40.5" spans="1:6">
       <c r="A21" s="1">
-        <v>20007</v>
+        <v>20008</v>
       </c>
       <c r="B21" s="1">
         <v>2</v>
       </c>
       <c r="C21" s="1">
-        <v>2460</v>
+        <v>7160</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>12</v>
@@ -1657,13 +1505,13 @@
     </row>
     <row r="22" ht="40.5" spans="1:6">
       <c r="A22" s="1">
-        <v>20008</v>
+        <v>20009</v>
       </c>
       <c r="B22" s="1">
         <v>2</v>
       </c>
       <c r="C22" s="1">
-        <v>4410</v>
+        <v>16260</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>12</v>
@@ -1677,13 +1525,13 @@
     </row>
     <row r="23" ht="40.5" spans="1:6">
       <c r="A23" s="1">
-        <v>20009</v>
+        <v>20010</v>
       </c>
       <c r="B23" s="1">
         <v>2</v>
       </c>
       <c r="C23" s="1">
-        <v>7160</v>
+        <v>29560</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>12</v>
@@ -1697,13 +1545,13 @@
     </row>
     <row r="24" ht="40.5" spans="1:6">
       <c r="A24" s="1">
-        <v>20010</v>
+        <v>20011</v>
       </c>
       <c r="B24" s="1">
         <v>2</v>
       </c>
       <c r="C24" s="1">
-        <v>16260</v>
+        <v>47060</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>12</v>
@@ -1717,13 +1565,13 @@
     </row>
     <row r="25" ht="40.5" spans="1:6">
       <c r="A25" s="1">
-        <v>20011</v>
+        <v>30001</v>
       </c>
       <c r="B25" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" s="1">
-        <v>29560</v>
+        <v>60</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>12</v>
@@ -1737,13 +1585,13 @@
     </row>
     <row r="26" ht="40.5" spans="1:6">
       <c r="A26" s="1">
-        <v>20012</v>
+        <v>30002</v>
       </c>
       <c r="B26" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C26" s="1">
-        <v>47060</v>
+        <v>140</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>12</v>
@@ -1757,13 +1605,13 @@
     </row>
     <row r="27" ht="40.5" spans="1:6">
       <c r="A27" s="1">
-        <v>30001</v>
+        <v>30003</v>
       </c>
       <c r="B27" s="1">
         <v>3</v>
       </c>
       <c r="C27" s="1">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>12</v>
@@ -1777,13 +1625,13 @@
     </row>
     <row r="28" ht="40.5" spans="1:6">
       <c r="A28" s="1">
-        <v>30002</v>
+        <v>30004</v>
       </c>
       <c r="B28" s="1">
         <v>3</v>
       </c>
       <c r="C28" s="1">
-        <v>60</v>
+        <v>710</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>12</v>
@@ -1797,13 +1645,13 @@
     </row>
     <row r="29" ht="40.5" spans="1:6">
       <c r="A29" s="1">
-        <v>30003</v>
+        <v>30005</v>
       </c>
       <c r="B29" s="1">
         <v>3</v>
       </c>
       <c r="C29" s="1">
-        <v>140</v>
+        <v>1335</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>12</v>
@@ -1817,13 +1665,13 @@
     </row>
     <row r="30" ht="40.5" spans="1:6">
       <c r="A30" s="1">
-        <v>30004</v>
+        <v>30006</v>
       </c>
       <c r="B30" s="1">
         <v>3</v>
       </c>
       <c r="C30" s="1">
-        <v>260</v>
+        <v>2460</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>12</v>
@@ -1837,13 +1685,13 @@
     </row>
     <row r="31" ht="40.5" spans="1:6">
       <c r="A31" s="1">
-        <v>30005</v>
+        <v>30007</v>
       </c>
       <c r="B31" s="1">
         <v>3</v>
       </c>
       <c r="C31" s="1">
-        <v>710</v>
+        <v>4410</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>12</v>
@@ -1857,13 +1705,13 @@
     </row>
     <row r="32" ht="40.5" spans="1:6">
       <c r="A32" s="1">
-        <v>30006</v>
+        <v>30008</v>
       </c>
       <c r="B32" s="1">
         <v>3</v>
       </c>
       <c r="C32" s="1">
-        <v>1335</v>
+        <v>7160</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>12</v>
@@ -1877,13 +1725,13 @@
     </row>
     <row r="33" ht="40.5" spans="1:6">
       <c r="A33" s="1">
-        <v>30007</v>
+        <v>30009</v>
       </c>
       <c r="B33" s="1">
         <v>3</v>
       </c>
       <c r="C33" s="1">
-        <v>2460</v>
+        <v>16260</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>12</v>
@@ -1897,13 +1745,13 @@
     </row>
     <row r="34" ht="40.5" spans="1:6">
       <c r="A34" s="1">
-        <v>30008</v>
+        <v>30010</v>
       </c>
       <c r="B34" s="1">
         <v>3</v>
       </c>
       <c r="C34" s="1">
-        <v>4410</v>
+        <v>29560</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>12</v>
@@ -1917,13 +1765,13 @@
     </row>
     <row r="35" ht="40.5" spans="1:6">
       <c r="A35" s="1">
-        <v>30009</v>
+        <v>30011</v>
       </c>
       <c r="B35" s="1">
         <v>3</v>
       </c>
       <c r="C35" s="1">
-        <v>7160</v>
+        <v>47060</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>12</v>
@@ -1937,13 +1785,13 @@
     </row>
     <row r="36" ht="40.5" spans="1:6">
       <c r="A36" s="1">
-        <v>30010</v>
+        <v>40001</v>
       </c>
       <c r="B36" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C36" s="1">
-        <v>16260</v>
+        <v>60</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>12</v>
@@ -1957,13 +1805,13 @@
     </row>
     <row r="37" ht="40.5" spans="1:6">
       <c r="A37" s="1">
-        <v>30011</v>
+        <v>40002</v>
       </c>
       <c r="B37" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C37" s="1">
-        <v>29560</v>
+        <v>140</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>12</v>
@@ -1977,13 +1825,13 @@
     </row>
     <row r="38" ht="40.5" spans="1:6">
       <c r="A38" s="1">
-        <v>30012</v>
+        <v>40003</v>
       </c>
       <c r="B38" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C38" s="1">
-        <v>47060</v>
+        <v>260</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>12</v>
@@ -1997,13 +1845,13 @@
     </row>
     <row r="39" ht="40.5" spans="1:6">
       <c r="A39" s="1">
-        <v>40001</v>
+        <v>40004</v>
       </c>
       <c r="B39" s="1">
         <v>4</v>
       </c>
       <c r="C39" s="1">
-        <v>0</v>
+        <v>710</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>12</v>
@@ -2017,13 +1865,13 @@
     </row>
     <row r="40" ht="40.5" spans="1:6">
       <c r="A40" s="1">
-        <v>40002</v>
+        <v>40005</v>
       </c>
       <c r="B40" s="1">
         <v>4</v>
       </c>
       <c r="C40" s="1">
-        <v>60</v>
+        <v>1335</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>12</v>
@@ -2037,13 +1885,13 @@
     </row>
     <row r="41" ht="40.5" spans="1:6">
       <c r="A41" s="1">
-        <v>40003</v>
+        <v>40006</v>
       </c>
       <c r="B41" s="1">
         <v>4</v>
       </c>
       <c r="C41" s="1">
-        <v>140</v>
+        <v>2460</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>12</v>
@@ -2057,13 +1905,13 @@
     </row>
     <row r="42" ht="40.5" spans="1:6">
       <c r="A42" s="1">
-        <v>40004</v>
+        <v>40007</v>
       </c>
       <c r="B42" s="1">
         <v>4</v>
       </c>
       <c r="C42" s="1">
-        <v>260</v>
+        <v>4410</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>12</v>
@@ -2077,13 +1925,13 @@
     </row>
     <row r="43" ht="40.5" spans="1:6">
       <c r="A43" s="1">
-        <v>40005</v>
+        <v>40008</v>
       </c>
       <c r="B43" s="1">
         <v>4</v>
       </c>
       <c r="C43" s="1">
-        <v>710</v>
+        <v>7160</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>12</v>
@@ -2097,13 +1945,13 @@
     </row>
     <row r="44" ht="40.5" spans="1:6">
       <c r="A44" s="1">
-        <v>40006</v>
+        <v>40009</v>
       </c>
       <c r="B44" s="1">
         <v>4</v>
       </c>
       <c r="C44" s="1">
-        <v>1335</v>
+        <v>16260</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>12</v>
@@ -2117,13 +1965,13 @@
     </row>
     <row r="45" ht="40.5" spans="1:6">
       <c r="A45" s="1">
-        <v>40007</v>
+        <v>40010</v>
       </c>
       <c r="B45" s="1">
         <v>4</v>
       </c>
       <c r="C45" s="1">
-        <v>2460</v>
+        <v>29560</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>12</v>
@@ -2137,13 +1985,13 @@
     </row>
     <row r="46" ht="40.5" spans="1:6">
       <c r="A46" s="1">
-        <v>40008</v>
+        <v>40011</v>
       </c>
       <c r="B46" s="1">
         <v>4</v>
       </c>
       <c r="C46" s="1">
-        <v>4410</v>
+        <v>47060</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>12</v>
@@ -2157,13 +2005,13 @@
     </row>
     <row r="47" ht="40.5" spans="1:6">
       <c r="A47" s="1">
-        <v>40009</v>
+        <v>50001</v>
       </c>
       <c r="B47" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C47" s="1">
-        <v>7160</v>
+        <v>60</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>12</v>
@@ -2177,13 +2025,13 @@
     </row>
     <row r="48" ht="40.5" spans="1:6">
       <c r="A48" s="1">
-        <v>40010</v>
+        <v>50002</v>
       </c>
       <c r="B48" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C48" s="1">
-        <v>16260</v>
+        <v>140</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>12</v>
@@ -2197,13 +2045,13 @@
     </row>
     <row r="49" ht="40.5" spans="1:6">
       <c r="A49" s="1">
-        <v>40011</v>
+        <v>50003</v>
       </c>
       <c r="B49" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C49" s="1">
-        <v>29560</v>
+        <v>260</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>12</v>
@@ -2217,13 +2065,13 @@
     </row>
     <row r="50" ht="40.5" spans="1:6">
       <c r="A50" s="1">
-        <v>40012</v>
+        <v>50004</v>
       </c>
       <c r="B50" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C50" s="1">
-        <v>47060</v>
+        <v>710</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>12</v>
@@ -2237,13 +2085,13 @@
     </row>
     <row r="51" ht="40.5" spans="1:6">
       <c r="A51" s="1">
-        <v>50001</v>
+        <v>50005</v>
       </c>
       <c r="B51" s="1">
         <v>5</v>
       </c>
       <c r="C51" s="1">
-        <v>0</v>
+        <v>1335</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>12</v>
@@ -2257,13 +2105,13 @@
     </row>
     <row r="52" ht="40.5" spans="1:6">
       <c r="A52" s="1">
-        <v>50002</v>
+        <v>50006</v>
       </c>
       <c r="B52" s="1">
         <v>5</v>
       </c>
       <c r="C52" s="1">
-        <v>60</v>
+        <v>2460</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>12</v>
@@ -2277,13 +2125,13 @@
     </row>
     <row r="53" ht="40.5" spans="1:6">
       <c r="A53" s="1">
-        <v>50003</v>
+        <v>50007</v>
       </c>
       <c r="B53" s="1">
         <v>5</v>
       </c>
       <c r="C53" s="1">
-        <v>140</v>
+        <v>4410</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>12</v>
@@ -2297,13 +2145,13 @@
     </row>
     <row r="54" ht="40.5" spans="1:6">
       <c r="A54" s="1">
-        <v>50004</v>
+        <v>50008</v>
       </c>
       <c r="B54" s="1">
         <v>5</v>
       </c>
       <c r="C54" s="1">
-        <v>260</v>
+        <v>7160</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>12</v>
@@ -2317,13 +2165,13 @@
     </row>
     <row r="55" ht="40.5" spans="1:6">
       <c r="A55" s="1">
-        <v>50005</v>
+        <v>50009</v>
       </c>
       <c r="B55" s="1">
         <v>5</v>
       </c>
       <c r="C55" s="1">
-        <v>710</v>
+        <v>16260</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>12</v>
@@ -2337,13 +2185,13 @@
     </row>
     <row r="56" ht="40.5" spans="1:6">
       <c r="A56" s="1">
-        <v>50006</v>
+        <v>50010</v>
       </c>
       <c r="B56" s="1">
         <v>5</v>
       </c>
       <c r="C56" s="1">
-        <v>1335</v>
+        <v>29560</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>12</v>
@@ -2357,13 +2205,13 @@
     </row>
     <row r="57" ht="40.5" spans="1:6">
       <c r="A57" s="1">
-        <v>50007</v>
+        <v>50011</v>
       </c>
       <c r="B57" s="1">
         <v>5</v>
       </c>
       <c r="C57" s="1">
-        <v>2460</v>
+        <v>47060</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>12</v>
@@ -2372,106 +2220,6 @@
         <v>13</v>
       </c>
       <c r="F57" s="7">
-        <v>301001</v>
-      </c>
-    </row>
-    <row r="58" ht="40.5" spans="1:6">
-      <c r="A58" s="1">
-        <v>50008</v>
-      </c>
-      <c r="B58" s="1">
-        <v>5</v>
-      </c>
-      <c r="C58" s="1">
-        <v>4410</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" s="7">
-        <v>301001</v>
-      </c>
-    </row>
-    <row r="59" ht="40.5" spans="1:6">
-      <c r="A59" s="1">
-        <v>50009</v>
-      </c>
-      <c r="B59" s="1">
-        <v>5</v>
-      </c>
-      <c r="C59" s="1">
-        <v>7160</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F59" s="7">
-        <v>301001</v>
-      </c>
-    </row>
-    <row r="60" ht="40.5" spans="1:6">
-      <c r="A60" s="1">
-        <v>50010</v>
-      </c>
-      <c r="B60" s="1">
-        <v>5</v>
-      </c>
-      <c r="C60" s="1">
-        <v>16260</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F60" s="7">
-        <v>301001</v>
-      </c>
-    </row>
-    <row r="61" ht="40.5" spans="1:6">
-      <c r="A61" s="1">
-        <v>50011</v>
-      </c>
-      <c r="B61" s="1">
-        <v>5</v>
-      </c>
-      <c r="C61" s="1">
-        <v>29560</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F61" s="7">
-        <v>301001</v>
-      </c>
-    </row>
-    <row r="62" ht="40.5" spans="1:6">
-      <c r="A62" s="1">
-        <v>50012</v>
-      </c>
-      <c r="B62" s="1">
-        <v>5</v>
-      </c>
-      <c r="C62" s="1">
-        <v>47060</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F62" s="7">
         <v>301001</v>
       </c>
     </row>

--- a/common/BranchTrigger.xlsx
+++ b/common/BranchTrigger.xlsx
@@ -43,7 +43,7 @@
     <t>Friend_id string</t>
   </si>
   <si>
-    <t xml:space="preserve"> favor int</t>
+    <t>favor int</t>
   </si>
   <si>
     <t>title string</t>
@@ -68,8 +68,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -93,9 +93,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -109,54 +108,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -176,17 +132,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,22 +178,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,12 +207,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -258,73 +258,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,103 +432,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,16 +484,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,30 +509,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,6 +547,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -579,10 +579,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -591,133 +591,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1067,8 +1067,8 @@
   <sheetPr/>
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1083,7 +1083,7 @@
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="81.75" spans="1:6">
+    <row r="1" ht="75.75" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
